--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,15 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaduali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889D27B-3A0B-4B0F-AB42-12B2ACB0B8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{957D04BA-1912-41BE-B318-E05989BA26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
-    <sheet name="Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="Display_Week">#REF!</definedName>
+    <definedName name="Project_Start">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -327,10 +343,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +360,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -384,13 +416,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -404,9 +474,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Date" xfId="2" xr:uid="{3C9C3D7D-EFC2-4D0A-B5EF-3D636545B4E4}"/>
+    <cellStyle name="Name" xfId="3" xr:uid="{0E75AED6-D74C-4F1F-BCDF-83FD7C1D6059}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Project Start" xfId="5" xr:uid="{39D47D89-7748-4AC3-9A40-02F38D00247F}"/>
+    <cellStyle name="Task" xfId="4" xr:uid="{EA99D4D0-F1BB-4DB3-97AF-3407BFFF3174}"/>
+    <cellStyle name="zHiddenText" xfId="1" xr:uid="{15BAECAE-95EF-4675-A8E0-688EC79F70D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,64 +502,1484 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27250518961415304"/>
+          <c:y val="5.6793026785318564E-2"/>
+          <c:w val="0.69744459610426113"/>
+          <c:h val="0.89804799400074997"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Activities!$D:$D</c:f>
+              <c:strCache>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-Aug</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-Sep</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9-Sep</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24-Sep</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24-Sep</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9-Sep</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29-Sep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5-Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29-Sep</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29-Sep</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5-Oct</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24-Sep</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Oct</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10-Oct</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20-Oct</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10-Oct</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10-Oct</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25-Oct</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4-Nov</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20-Nov</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25-Nov</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25-Nov</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5-Dec</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16-Dec</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30-Nov</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5-Dec</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5-Dec</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16-Dec</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26-Dec</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31-Dec</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Activities!$B:$B</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Activities!$B$2:$B$1048576</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.1 Project Kick-off</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2 Requirements Gathering &amp; Refinement</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3 Technical Architecture Design</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4 Database Schema Design</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5 Security &amp; Compliance Plan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6 User Interface (UI) Mockups</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6 Feasibility Study</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7 Project Plan Approval</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1 User Management Backend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2 Bot Control Backend</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3 MT5 API Integration</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4 Market Data API Integration</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5 Frontend Development - User Management</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6 Frontend Development - Bot Dashboard</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7 Trade History Module</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8 Frontend Development</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9 Backend Development</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.10 System Integration</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1 Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2 Integration Testing</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3 Performance Testing</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4 Security Audits</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5 Unit Testing</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6 System Testing</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7 User Acceptance Testing (UAT)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1 Production Environment Setup</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2 Initial Deployment</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.3 User Training &amp; Documentation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4 Ongoing Monitoring &amp; Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5 Deployment Preparation</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6 Production Go-Live</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.7 Post-Deployment Support</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8 Ongoing Maintenance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Activities!$E$2:$E$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Activities!$E$3:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>45912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45953</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45963</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45958</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45963</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45989</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46015</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46025</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5908-45D0-A633-676779412EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1046906031"/>
+        <c:axId val="1046923311"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Activities!$B:$B</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>Activity</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1 Project Kick-off</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.2 Requirements Gathering &amp; Refinement</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.3 Technical Architecture Design</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.4 Database Schema Design</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5 Security &amp; Compliance Plan</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6 User Interface (UI) Mockups</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.6 Feasibility Study</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.7 Project Plan Approval</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1 User Management Backend</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2 Bot Control Backend</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.3 MT5 API Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4 Market Data API Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.5 Frontend Development - User Management</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.6 Frontend Development - Bot Dashboard</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.7 Trade History Module</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.8 Frontend Development</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.9 Backend Development</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.10 System Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.1 Unit Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.2 Integration Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.3 Performance Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3.4 Security Audits</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3.5 Unit Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.6 System Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3.7 User Acceptance Testing (UAT)</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.1 Production Environment Setup</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.2 Initial Deployment</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.3 User Training &amp; Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.4 Ongoing Monitoring &amp; Maintenance</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.5 Deployment Preparation</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.6 Production Go-Live</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.7 Post-Deployment Support</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4.8 Ongoing Maintenance</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Activities!$B:$B</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Activities!$B$2:$B$1048576</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="36"/>
+                      <c:pt idx="0">
+                        <c:v>1.1 Project Kick-off</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.2 Requirements Gathering &amp; Refinement</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.3 Technical Architecture Design</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.4 Database Schema Design</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.5 Security &amp; Compliance Plan</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.6 User Interface (UI) Mockups</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6 Feasibility Study</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.7 Project Plan Approval</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.1 User Management Backend</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.2 Bot Control Backend</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.3 MT5 API Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.4 Market Data API Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5 Frontend Development - User Management</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6 Frontend Development - Bot Dashboard</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.7 Trade History Module</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.8 Frontend Development</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.9 Backend Development</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.10 System Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.1 Unit Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>3.2 Integration Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3.3 Performance Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.4 Security Audits</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3.5 Unit Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3.6 System Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.7 User Acceptance Testing (UAT)</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>4.1 Production Environment Setup</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>4.2 Initial Deployment</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4.3 User Training &amp; Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.4 Ongoing Monitoring &amp; Maintenance</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.5 Deployment Preparation</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4.6 Production Go-Live</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.7 Post-Deployment Support</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4.8 Ongoing Maintenance</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000026-5908-45D0-A633-676779412EAC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Activities!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>End Date</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000027-5908-45D0-A633-676779412EAC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1046906031"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1046923311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1046923311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1046906031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>167658</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CF7724-26A6-DFA1-006F-5E8A45AF3056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A852EF4B-5D77-B58C-7C64-A090310B94C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="3333" r="-208"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1821180" y="472440"/>
-          <a:ext cx="10995660" cy="8839218"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -773,842 +2274,1116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="12.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>45899</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>45901</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>45904</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>45912</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>45909</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>45922</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>45924</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>45927</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.3</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>45924</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>45927</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>45909</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>45917</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>45929</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>45932</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>45935</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>45938</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45929</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45943</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7">
         <v>45929</v>
       </c>
-      <c r="E11" s="1">
-        <v>45943</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E12" s="7">
+        <v>45948</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45935</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45924</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45938</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G14" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45929</v>
-      </c>
-      <c r="E12" s="1">
-        <v>45948</v>
-      </c>
-      <c r="F12" s="4">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45945</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45940</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45963</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45950</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45963</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45940</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45958</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45935</v>
-      </c>
-      <c r="E13" s="1">
-        <v>45953</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="4" t="s">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45940</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45968</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45924</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45938</v>
-      </c>
-      <c r="F14" s="4">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45971</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45984</v>
+      </c>
+      <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45945</v>
-      </c>
-      <c r="E15" s="1">
-        <v>45953</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45940</v>
-      </c>
-      <c r="E16" s="1">
-        <v>45963</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1">
-        <v>45950</v>
-      </c>
-      <c r="E17" s="1">
-        <v>45963</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1">
-        <v>45940</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45958</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45940</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45968</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1">
-        <v>45971</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45984</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>45955</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>45963</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>45965</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>45979</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>3.1</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>45981</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>45984</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>45986</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>45989</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>45986</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>45994</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="7">
         <v>45996</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="7">
         <v>46005</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>46007</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>46015</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="7">
         <v>45991</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <v>45994</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>45996</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>45999</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="7">
         <v>45996</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>46005</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>2.6</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>46007</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>46007</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>2</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>4.2</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="34" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>46017</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>46020</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="35" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="7">
         <v>46022</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <v>46025</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="36" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="7">
         <v>46027</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <v>46035</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>2</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="37" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="7">
         <v>46038</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="7">
         <v>46111</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>14</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538C0C04-5CFA-4219-8195-C064C6ADE30C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100413628F4F2844D469B7FD2884B8CDDF1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9497c0987393f56500d78a67bde9e53e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f852fc62-6b2b-4a79-8642-bb1c1b810899" xmlns:ns4="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75ed2e9df7c2ec05d914961a4ffe03c8" ns3:_="" ns4:_="">
+    <xsd:import namespace="f852fc62-6b2b-4a79-8642-bb1c1b810899"/>
+    <xsd:import namespace="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f852fc62-6b2b-4a79-8642-bb1c1b810899" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="23" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A740680-DBEB-438B-885C-6625CD423C76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f852fc62-6b2b-4a79-8642-bb1c1b810899"/>
+    <ds:schemaRef ds:uri="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59B84AC-1922-411F-8E6E-F5D9CE3780AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCBD60F2-CAD0-4255-AD8D-0ACD3C02C87C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f852fc62-6b2b-4a79-8642-bb1c1b810899"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3647d43a-f3c1-4e22-acc3-25a0ddfd19fb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>